--- a/results/logistic/dilemma/confidence/0.35/sum_scores.xlsx
+++ b/results/logistic/dilemma/confidence/0.35/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="323">
   <si>
     <t>negative</t>
   </si>
@@ -61,40 +61,46 @@
     <t>news</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>down</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>.</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>false</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>serious</t>
+    <t>software</t>
   </si>
   <si>
     <t>fucked</t>
@@ -103,916 +109,880 @@
     <t>fuck</t>
   </si>
   <si>
-    <t>false</t>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>drugs</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>software</t>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>few</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>dangerous</t>
   </si>
   <si>
     <t>it</t>
   </si>
   <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>‘</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>industries</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>edward</t>
+  </si>
+  <si>
+    <t>spreads</t>
+  </si>
+  <si>
     <t>times</t>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>holy</t>
+    <t>users</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>are</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>mad</t>
+    <t>late</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>information</t>
   </si>
   <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>‘</t>
-  </si>
-  <si>
-    <t>spreads</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>'</t>
+    <t>silicon</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>extremely</t>
+  </si>
+  <si>
+    <t>into</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>happening</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>completely</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>travels</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>exploited</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>according</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>getting</t>
   </si>
   <si>
     <t>single</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>days</t>
+    <t>si</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>halfway</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>being</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>dea</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>kind</t>
   </si>
   <si>
     <t>"</t>
   </si>
   <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>being</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>brings</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>through</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>tu</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>critics</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>paying</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>films</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>aware</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>ways</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>jar</t>
+  </si>
+  <si>
+    <t>barlow</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>wondered</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>than</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>each</t>
-  </si>
-  <si>
-    <t>holes</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>ve</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>wat</t>
-  </si>
-  <si>
-    <t>considering</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>bro</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>stuff</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>topics</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>anti</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>getting</t>
-  </si>
-  <si>
-    <t>these</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>blowing</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>whilst</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>until</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>checking</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>dea</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>don</t>
-  </si>
-  <si>
-    <t>extremely</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>thing</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>strongly</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>gotten</t>
+  </si>
+  <si>
+    <t>yourself</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>critics</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>our</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>platform</t>
   </si>
   <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>gotten</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>besides</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>often</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>metric</t>
-  </si>
-  <si>
-    <t>movie</t>
-  </si>
-  <si>
-    <t>vi</t>
-  </si>
-  <si>
-    <t>ask</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>wonder</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>emotional</t>
-  </si>
-  <si>
-    <t>polar</t>
-  </si>
-  <si>
-    <t>curse</t>
-  </si>
-  <si>
-    <t>sufficiently</t>
-  </si>
-  <si>
-    <t>arthur</t>
-  </si>
-  <si>
-    <t>po</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>immediately</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>weekend</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>ethical</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>feed</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>manipulate</t>
-  </si>
-  <si>
-    <t>incredibly</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>•</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>surprised</t>
-  </si>
-  <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>aware</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>wild</t>
+    <t>by</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q190"/>
+  <dimension ref="A1:Q175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1439,13 +1409,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1244769874476988</v>
+        <v>0.1289640591966173</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1457,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="K3">
-        <v>0.2121535181236674</v>
+        <v>0.2059471365638766</v>
       </c>
       <c r="L3">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="M3">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1481,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>899</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1489,13 +1459,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.06589958158995816</v>
+        <v>0.06765327695560254</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1507,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="K4">
-        <v>0.08422174840085288</v>
+        <v>0.08700440528634361</v>
       </c>
       <c r="L4">
         <v>79</v>
@@ -1539,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.03765690376569038</v>
+        <v>0.03805496828752643</v>
       </c>
       <c r="C5">
         <v>36</v>
@@ -1560,16 +1530,16 @@
         <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K5">
-        <v>0.04797441364605544</v>
+        <v>0.05176211453744493</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1581,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1589,13 +1559,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03451882845188285</v>
+        <v>0.03699788583509514</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1607,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K6">
-        <v>0.04690831556503199</v>
+        <v>0.04625550660792951</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1631,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1639,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03347280334728033</v>
+        <v>0.03382663847780127</v>
       </c>
       <c r="C7">
         <v>32</v>
@@ -1660,10 +1630,10 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="K7">
-        <v>0.04371002132196162</v>
+        <v>0.04515418502202643</v>
       </c>
       <c r="L7">
         <v>41</v>
@@ -1689,13 +1659,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02928870292887029</v>
+        <v>0.03382663847780127</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1707,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="K8">
-        <v>0.02771855010660981</v>
+        <v>0.03303964757709251</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1731,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1739,13 +1709,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02301255230125523</v>
+        <v>0.02642706131078224</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1757,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9">
+        <v>0.02533039647577092</v>
+      </c>
+      <c r="L9">
         <v>23</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K9">
-        <v>0.02665245202558635</v>
-      </c>
-      <c r="L9">
-        <v>25</v>
-      </c>
       <c r="M9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1781,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1789,31 +1759,31 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02092050209205021</v>
+        <v>0.02219873150105708</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>2763</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K10">
-        <v>0.02452025586353945</v>
+        <v>0.02533039647577092</v>
       </c>
       <c r="L10">
         <v>23</v>
@@ -1831,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1839,31 +1809,31 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0198744769874477</v>
+        <v>0.02219873150105708</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2762</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="K11">
-        <v>0.02345415778251599</v>
+        <v>0.02422907488986784</v>
       </c>
       <c r="L11">
         <v>22</v>
@@ -1889,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0198744769874477</v>
+        <v>0.0200845665961945</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -1907,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K12">
-        <v>0.02025586353944563</v>
+        <v>0.02312775330396476</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1931,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1939,13 +1909,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01778242677824268</v>
+        <v>0.01902748414376321</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1957,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="K13">
-        <v>0.01918976545842218</v>
+        <v>0.01982378854625551</v>
       </c>
       <c r="L13">
         <v>18</v>
@@ -1981,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1989,7 +1959,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01778242677824268</v>
+        <v>0.01797040169133192</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -2007,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K14">
-        <v>0.01812366737739872</v>
+        <v>0.01431718061674009</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2031,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2039,13 +2009,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01673640167364017</v>
+        <v>0.01797040169133192</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2057,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="K15">
-        <v>0.0138592750533049</v>
+        <v>0.01431718061674009</v>
       </c>
       <c r="L15">
         <v>13</v>
@@ -2081,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2089,13 +2059,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01673640167364017</v>
+        <v>0.01479915433403805</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2107,19 +2077,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="K16">
-        <v>0.0138592750533049</v>
+        <v>0.01211453744493392</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2131,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2139,37 +2109,37 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01569037656903766</v>
+        <v>0.01268498942917548</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>3911</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="K17">
-        <v>0.0138592750533049</v>
+        <v>0.01211453744493392</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2181,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2189,13 +2159,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01569037656903766</v>
+        <v>0.01268498942917548</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2207,31 +2177,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="K18">
-        <v>0.01279317697228145</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N18">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2239,13 +2209,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01464435146443515</v>
+        <v>0.01268498942917548</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2257,19 +2227,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K19">
-        <v>0.011727078891258</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2281,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2289,31 +2259,31 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01359832635983264</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>3914</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="K20">
-        <v>0.01066098081023454</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -2331,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2339,7 +2309,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01150627615062762</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -2357,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="K21">
-        <v>0.009594882729211088</v>
+        <v>0.009911894273127754</v>
       </c>
       <c r="L21">
         <v>9</v>
@@ -2381,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>376</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2389,13 +2359,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01150627615062762</v>
+        <v>0.0105708245243129</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2407,19 +2377,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="K22">
-        <v>0.009594882729211088</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2431,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2439,13 +2409,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01150627615062762</v>
+        <v>0.0105708245243129</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2457,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K23">
-        <v>0.008528784648187633</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="L23">
         <v>8</v>
@@ -2481,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2489,7 +2459,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0104602510460251</v>
+        <v>0.0105708245243129</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -2507,31 +2477,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="K24">
-        <v>0.007462686567164179</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N24">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2762</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2539,13 +2509,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0104602510460251</v>
+        <v>0.009513742071881607</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2557,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K25">
-        <v>0.006396588486140725</v>
+        <v>0.007709251101321586</v>
       </c>
       <c r="L25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2581,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>109</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2589,7 +2559,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009414225941422594</v>
+        <v>0.009513742071881607</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -2607,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="K26">
-        <v>0.006396588486140725</v>
+        <v>0.006607929515418502</v>
       </c>
       <c r="L26">
         <v>6</v>
@@ -2631,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2639,37 +2609,37 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.009414225941422594</v>
+        <v>0.008456659619450317</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1035</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="K27">
-        <v>0.005330490405117271</v>
+        <v>0.006607929515418502</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2681,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2689,13 +2659,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.009414225941422594</v>
+        <v>0.008456659619450317</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2707,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K28">
-        <v>0.005330490405117271</v>
+        <v>0.005506607929515419</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -2731,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2739,13 +2709,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.009414225941422594</v>
+        <v>0.008456659619450317</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2757,31 +2727,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="K29">
-        <v>0.005330490405117271</v>
+        <v>0.005506607929515419</v>
       </c>
       <c r="L29">
         <v>5</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>724</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2789,13 +2759,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.009414225941422594</v>
+        <v>0.008456659619450317</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2807,31 +2777,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="K30">
-        <v>0.005330490405117271</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="O30">
-        <v>0.62</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>870</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2839,7 +2809,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.008368200836820083</v>
+        <v>0.008456659619450317</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -2857,31 +2827,31 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31">
+        <v>0.004405286343612335</v>
+      </c>
+      <c r="L31">
         <v>4</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31">
-        <v>0.005330490405117271</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
       <c r="M31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1093</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2889,49 +2859,49 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.008368200836820083</v>
+        <v>0.007399577167019027</v>
       </c>
       <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>21</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32">
+        <v>0.004405286343612335</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
         <v>8</v>
       </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>20</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32">
-        <v>0.005330490405117271</v>
-      </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-      <c r="M32">
-        <v>5</v>
-      </c>
       <c r="N32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>707</v>
+        <v>954</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2939,7 +2909,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.007322175732217573</v>
+        <v>0.007399577167019027</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -2957,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K33">
-        <v>0.005330490405117271</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2981,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>947</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2989,7 +2959,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.007322175732217573</v>
+        <v>0.007399577167019027</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -3007,31 +2977,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="K34">
-        <v>0.005330490405117271</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M34">
         <v>5</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>278</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3039,49 +3009,49 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.006276150627615063</v>
+        <v>0.007399577167019027</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>952</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="K35">
-        <v>0.005330490405117271</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3089,13 +3059,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006276150627615063</v>
+        <v>0.007399577167019027</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3107,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="K36">
-        <v>0.005330490405117271</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3131,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3139,13 +3109,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.006276150627615063</v>
+        <v>0.007399577167019027</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3157,31 +3127,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="K37">
-        <v>0.004264392324093817</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L37">
         <v>4</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>0.5700000000000001</v>
+        <v>1</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>338</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3189,7 +3159,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006276150627615063</v>
+        <v>0.006342494714587738</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -3207,31 +3177,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="K38">
-        <v>0.004264392324093817</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L38">
         <v>4</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>952</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3239,49 +3209,49 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.006276150627615063</v>
+        <v>0.006342494714587738</v>
       </c>
       <c r="C39">
         <v>6</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="K39">
-        <v>0.004264392324093817</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L39">
         <v>4</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1731</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3289,13 +3259,13 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.005230125523012552</v>
+        <v>0.006342494714587738</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3307,31 +3277,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="K40">
-        <v>0.004264392324093817</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L40">
         <v>4</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>947</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3339,31 +3309,31 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.005230125523012552</v>
+        <v>0.006342494714587738</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>948</v>
+        <v>6</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K41">
-        <v>0.004264392324093817</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L41">
         <v>4</v>
@@ -3381,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3389,13 +3359,13 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.005230125523012552</v>
+        <v>0.006342494714587738</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3410,10 +3380,10 @@
         <v>11</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="K42">
-        <v>0.004264392324093817</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="L42">
         <v>4</v>
@@ -3431,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3439,13 +3409,13 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005230125523012552</v>
+        <v>0.006342494714587738</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3457,19 +3427,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K43">
-        <v>0.004264392324093817</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3481,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3489,31 +3459,31 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.005230125523012552</v>
+        <v>0.005285412262156448</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1139</v>
+        <v>294</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="K44">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L44">
         <v>3</v>
@@ -3531,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3539,7 +3509,7 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.005230125523012552</v>
+        <v>0.005285412262156448</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -3557,31 +3527,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="K45">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L45">
         <v>3</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N45">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O45">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>546</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3589,49 +3559,49 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.005230125523012552</v>
+        <v>0.005285412262156448</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>948</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="K46">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L46">
         <v>3</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>195</v>
+        <v>872</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3639,7 +3609,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.005230125523012552</v>
+        <v>0.005285412262156448</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -3657,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="K47">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L47">
         <v>3</v>
@@ -3681,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3689,7 +3659,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.005230125523012552</v>
+        <v>0.005285412262156448</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -3707,13 +3677,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="K48">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L48">
         <v>3</v>
@@ -3731,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>312</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3739,7 +3709,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.005230125523012552</v>
+        <v>0.005285412262156448</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -3757,31 +3727,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K49">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L49">
         <v>3</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N49">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="O49">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1139</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3789,7 +3759,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.005230125523012552</v>
+        <v>0.005285412262156448</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -3807,31 +3777,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="K50">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>0.25</v>
+        <v>0.79</v>
       </c>
       <c r="O50">
-        <v>0.75</v>
+        <v>0.21</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>434</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3839,7 +3809,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.005230125523012552</v>
+        <v>0.005285412262156448</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -3860,10 +3830,10 @@
         <v>14</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="K51">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L51">
         <v>3</v>
@@ -3881,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3889,49 +3859,49 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.004184100418410041</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>954</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="K52">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>948</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3939,31 +3909,31 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.004184100418410041</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K53">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L53">
         <v>3</v>
@@ -3981,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3989,7 +3959,7 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.004184100418410041</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -4007,31 +3977,31 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="K54">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>12</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4039,31 +4009,31 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.004184100418410041</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>50</v>
+        <v>1140</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="K55">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L55">
         <v>3</v>
@@ -4081,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4089,49 +4059,49 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.004184100418410041</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>724</v>
+        <v>97</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="K56">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L56">
         <v>3</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>948</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4139,7 +4109,7 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.004184100418410041</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -4157,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="K57">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L57">
         <v>3</v>
@@ -4181,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4189,7 +4159,7 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.004184100418410041</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -4207,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K58">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L58">
         <v>3</v>
@@ -4231,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4239,7 +4209,7 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.004184100418410041</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -4257,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K59">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L59">
         <v>3</v>
@@ -4281,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>613</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4289,7 +4259,7 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.004184100418410041</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -4307,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="K60">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L60">
         <v>3</v>
@@ -4331,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4339,13 +4309,13 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.004184100418410041</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4357,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="K61">
-        <v>0.003198294243070362</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L61">
         <v>3</v>
@@ -4381,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4389,13 +4359,13 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.004184100418410041</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4407,31 +4377,31 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="K62">
-        <v>0.002132196162046908</v>
+        <v>0.003303964757709251</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>603</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4439,49 +4409,49 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>294</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K63">
+        <v>0.002202643171806168</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
         <v>4</v>
       </c>
-      <c r="E63">
-        <v>0.75</v>
-      </c>
-      <c r="F63">
-        <v>0.25</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>446</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K63">
-        <v>0.002132196162046908</v>
-      </c>
-      <c r="L63">
-        <v>2</v>
-      </c>
-      <c r="M63">
-        <v>2</v>
-      </c>
       <c r="N63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>14</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4489,49 +4459,49 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>776</v>
+        <v>97</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="K64">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L64">
         <v>2</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>40</v>
+        <v>546</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4539,49 +4509,49 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F65">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>603</v>
+        <v>872</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="K65">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L65">
         <v>2</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N65">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>3911</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4589,31 +4559,31 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>727</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="K66">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -4631,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4639,7 +4609,7 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -4657,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="K67">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -4681,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4689,31 +4659,31 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1093</v>
+        <v>122</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="K68">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -4731,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>335</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4739,7 +4709,7 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -4757,13 +4727,13 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="K69">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L69">
         <v>2</v>
@@ -4789,31 +4759,31 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>11</v>
+        <v>1139</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="K70">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L70">
         <v>2</v>
@@ -4831,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4839,31 +4809,31 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>870</v>
+        <v>10</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="K71">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L71">
         <v>2</v>
@@ -4881,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>8</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4889,31 +4859,31 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1138</v>
+        <v>19</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="K72">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L72">
         <v>2</v>
@@ -4931,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4939,7 +4909,7 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.003138075313807531</v>
+        <v>0.003171247357293869</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -4957,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="K73">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L73">
         <v>2</v>
@@ -4989,13 +4959,13 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>0.003138075313807531</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5007,45 +4977,45 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>8</v>
+        <v>448</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="K74">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L74">
         <v>2</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>203</v>
+        <v>602</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.003138075313807531</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5057,95 +5027,95 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="K75">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L75">
         <v>2</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N75">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O75">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>300</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.003138075313807531</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
         <v>3</v>
       </c>
-      <c r="D76">
-        <v>7</v>
-      </c>
       <c r="E76">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="F76">
-        <v>0.5700000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>338</v>
+        <v>778</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="K76">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L76">
         <v>2</v>
       </c>
       <c r="M76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1138</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.003138075313807531</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5157,13 +5127,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="K77">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L77">
         <v>2</v>
@@ -5181,21 +5151,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>107</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.003138075313807531</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5207,13 +5177,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K78">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L78">
         <v>2</v>
@@ -5231,15 +5201,15 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -5257,13 +5227,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K79">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L79">
         <v>2</v>
@@ -5281,15 +5251,15 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -5307,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="K80">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L80">
         <v>2</v>
@@ -5331,15 +5301,15 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -5357,63 +5327,63 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="K81">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L81">
         <v>2</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O81">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>1043</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>13</v>
+        <v>368</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="K82">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L82">
         <v>2</v>
@@ -5431,15 +5401,15 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -5457,13 +5427,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K83">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L83">
         <v>2</v>
@@ -5481,15 +5451,15 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5507,13 +5477,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="K84">
-        <v>0.002132196162046908</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="L84">
         <v>2</v>
@@ -5531,15 +5501,15 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -5557,19 +5527,19 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="K85">
-        <v>0.002132196162046908</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5581,15 +5551,15 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -5607,19 +5577,19 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>447</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K86">
-        <v>0.002132196162046908</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5631,15 +5601,15 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -5657,39 +5627,39 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="K87">
-        <v>0.002132196162046908</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O87">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>776</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -5707,19 +5677,19 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="K88">
-        <v>0.002132196162046908</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5731,45 +5701,45 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E89">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F89">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>366</v>
+        <v>1095</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K89">
-        <v>0.002132196162046908</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5781,39 +5751,39 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>130</v>
+        <v>546</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K90">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5831,15 +5801,15 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -5857,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="K91">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5881,15 +5851,15 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -5907,39 +5877,39 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="K92">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L92">
         <v>1</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N92">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O92">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>366</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -5957,13 +5927,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="K93">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5981,15 +5951,15 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>539</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -6007,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K94">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -6031,39 +6001,39 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>447</v>
+        <v>660</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="K95">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -6081,15 +6051,15 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -6107,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K96">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -6131,15 +6101,15 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>129</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -6157,39 +6127,39 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>271</v>
+        <v>88</v>
       </c>
       <c r="K97">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O97">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <v>8</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B98">
-        <v>0.002092050209205021</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -6207,13 +6177,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K98">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -6231,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>201</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6239,31 +6209,31 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.00104602510460251</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>0.6699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>1043</v>
+        <v>197</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K99">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -6281,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6289,13 +6259,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.00104602510460251</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6307,13 +6277,13 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="K100">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -6331,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6339,49 +6309,49 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00104602510460251</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="K101">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L101">
         <v>1</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O101">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>20</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6389,13 +6359,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.00104602510460251</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6407,13 +6377,13 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="K102">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -6431,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6439,31 +6409,31 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.00104602510460251</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="K103">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -6481,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6489,13 +6459,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.00104602510460251</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6507,13 +6477,13 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>370</v>
+        <v>10</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="K104">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -6531,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6539,13 +6509,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.00104602510460251</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6557,13 +6527,13 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="K105">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -6581,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6589,7 +6559,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6607,13 +6577,13 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="K106">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -6631,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6639,49 +6609,49 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>546</v>
+        <v>19</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L107">
         <v>1</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="O107">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="P107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107">
-        <v>51</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6689,7 +6659,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6707,13 +6677,13 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>72</v>
+        <v>368</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="K108">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -6739,31 +6709,31 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>25</v>
+        <v>1731</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K109">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -6781,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6789,7 +6759,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6807,31 +6777,31 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="K110">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L110">
         <v>1</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O110">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
-        <v>251</v>
+        <v>778</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -6839,7 +6809,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6857,13 +6827,13 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K111">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -6881,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6889,7 +6859,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6907,13 +6877,13 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="K112">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -6931,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -6939,31 +6909,31 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="K113">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L113">
         <v>1</v>
@@ -6981,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -6989,7 +6959,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -7010,10 +6980,10 @@
         <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="K114">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L114">
         <v>1</v>
@@ -7031,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -7039,7 +7009,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -7057,31 +7027,31 @@
         <v>0</v>
       </c>
       <c r="H115">
+        <v>153</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K115">
+        <v>0.001101321585903084</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
         <v>6</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K115">
-        <v>0.001066098081023454</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-      <c r="M115">
-        <v>2</v>
-      </c>
-      <c r="N115">
-        <v>0.5</v>
-      </c>
-      <c r="O115">
-        <v>0.5</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -7089,7 +7059,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7107,13 +7077,13 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K116">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -7131,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -7139,7 +7109,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -7157,13 +7127,13 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="K117">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -7181,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -7189,7 +7159,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -7207,13 +7177,13 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="K118">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L118">
         <v>1</v>
@@ -7231,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -7239,7 +7209,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7257,13 +7227,13 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K119">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -7281,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7289,7 +7259,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7307,31 +7277,31 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="K120">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -7339,7 +7309,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -7357,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="K121">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -7381,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -7389,7 +7359,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -7407,31 +7377,31 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="K122">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O122">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122">
-        <v>13</v>
+        <v>629</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -7439,7 +7409,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -7457,13 +7427,13 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="K123">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L123">
         <v>1</v>
@@ -7481,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7489,7 +7459,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -7507,13 +7477,13 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="K124">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L124">
         <v>1</v>
@@ -7531,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -7539,7 +7509,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -7557,13 +7527,13 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="K125">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -7581,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>1</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7589,7 +7559,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -7607,13 +7577,13 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="K126">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -7639,7 +7609,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -7657,13 +7627,13 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="K127">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L127">
         <v>1</v>
@@ -7681,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>4</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -7689,7 +7659,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -7707,13 +7677,13 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="K128">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -7731,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -7739,7 +7709,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -7757,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="K129">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -7781,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -7789,7 +7759,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -7807,13 +7777,13 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="K130">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -7831,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -7839,7 +7809,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -7857,31 +7827,31 @@
         <v>0</v>
       </c>
       <c r="H131">
+        <v>70</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K131">
+        <v>0.001101321585903084</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
         <v>4</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K131">
-        <v>0.001066098081023454</v>
-      </c>
-      <c r="L131">
-        <v>1</v>
-      </c>
-      <c r="M131">
-        <v>1</v>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-      <c r="O131">
-        <v>1</v>
-      </c>
-      <c r="P131" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -7889,7 +7859,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -7907,13 +7877,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="K132">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -7931,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -7939,7 +7909,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -7957,13 +7927,13 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="K133">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L133">
         <v>1</v>
@@ -7981,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -7989,7 +7959,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -8007,31 +7977,31 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="K134">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O134">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>166</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -8039,7 +8009,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -8057,13 +8027,13 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K135">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -8081,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>45</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -8089,31 +8059,31 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>0.6699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="K136">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -8131,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -8139,7 +8109,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -8157,13 +8127,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K137">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -8181,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -8189,7 +8159,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -8207,13 +8177,13 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="K138">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L138">
         <v>1</v>
@@ -8231,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -8239,31 +8209,31 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="K139">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L139">
         <v>1</v>
@@ -8281,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -8289,7 +8259,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -8307,13 +8277,13 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K140">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -8331,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -8339,7 +8309,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -8357,13 +8327,13 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K141">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L141">
         <v>1</v>
@@ -8381,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -8389,7 +8359,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -8407,13 +8377,13 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="K142">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L142">
         <v>1</v>
@@ -8431,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -8439,7 +8409,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -8457,31 +8427,31 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>69</v>
+        <v>302</v>
       </c>
       <c r="K143">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L143">
         <v>1</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N143">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O143">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q143">
-        <v>446</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -8489,7 +8459,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -8507,13 +8477,13 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="K144">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L144">
         <v>1</v>
@@ -8531,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -8539,31 +8509,31 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>30</v>
+        <v>629</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K145">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L145">
         <v>1</v>
@@ -8581,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>294</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -8589,7 +8559,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -8607,13 +8577,13 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="K146">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L146">
         <v>1</v>
@@ -8631,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -8639,31 +8609,31 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>5</v>
+        <v>947</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="K147">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L147">
         <v>1</v>
@@ -8681,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -8689,7 +8659,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -8707,13 +8677,13 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="K148">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L148">
         <v>1</v>
@@ -8731,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -8739,7 +8709,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -8757,13 +8727,13 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K149">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L149">
         <v>1</v>
@@ -8781,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:17">
@@ -8789,31 +8759,31 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>1731</v>
+        <v>0</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="K150">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L150">
         <v>1</v>
@@ -8831,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:17">
@@ -8839,7 +8809,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -8857,13 +8827,13 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="K151">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L151">
         <v>1</v>
@@ -8881,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>3</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:17">
@@ -8889,7 +8859,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -8907,13 +8877,13 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="K152">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L152">
         <v>1</v>
@@ -8931,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="1:17">
@@ -8939,7 +8909,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -8957,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K153">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L153">
         <v>1</v>
@@ -8981,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -8989,7 +8959,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -9007,13 +8977,13 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="K154">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L154">
         <v>1</v>
@@ -9031,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="1:17">
@@ -9039,7 +9009,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -9057,31 +9027,31 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>106</v>
+        <v>314</v>
       </c>
       <c r="K155">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L155">
         <v>1</v>
       </c>
       <c r="M155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N155">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O155">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q155">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:17">
@@ -9089,31 +9059,31 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K156">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L156">
         <v>1</v>
@@ -9131,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:17">
@@ -9139,7 +9109,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -9157,13 +9127,13 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="K157">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L157">
         <v>1</v>
@@ -9181,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:17">
@@ -9189,7 +9159,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -9207,31 +9177,31 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>539</v>
+        <v>20</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="K158">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L158">
         <v>1</v>
       </c>
       <c r="M158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q158">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -9239,7 +9209,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -9260,10 +9230,10 @@
         <v>4</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="K159">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L159">
         <v>1</v>
@@ -9281,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -9289,31 +9259,31 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="K160">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L160">
         <v>1</v>
@@ -9331,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:17">
@@ -9339,7 +9309,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -9357,13 +9327,13 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="K161">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L161">
         <v>1</v>
@@ -9381,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:17">
@@ -9389,7 +9359,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -9407,13 +9377,13 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K162">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L162">
         <v>1</v>
@@ -9431,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:17">
@@ -9439,31 +9409,31 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>434</v>
+        <v>14</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K163">
-        <v>0.001066098081023454</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="L163">
         <v>1</v>
@@ -9481,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164" spans="1:17">
@@ -9489,7 +9459,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -9507,31 +9477,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>663</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K164">
-        <v>0.001066098081023454</v>
-      </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-      <c r="M164">
-        <v>1</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-      <c r="O164">
-        <v>1</v>
-      </c>
-      <c r="P164" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q164">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:17">
@@ -9539,7 +9485,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -9557,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:17">
@@ -9565,7 +9511,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -9583,15 +9529,15 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:17">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="B167">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -9609,15 +9555,15 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:17">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -9635,15 +9581,15 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:17">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B169">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -9661,15 +9607,15 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:17">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B170">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -9687,15 +9633,15 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="171" spans="1:17">
       <c r="A171" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B171">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -9713,15 +9659,15 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:17">
       <c r="A172" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B172">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -9739,15 +9685,15 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:17">
       <c r="A173" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B173">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -9765,15 +9711,15 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>128</v>
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:17">
       <c r="A174" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B174">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -9791,15 +9737,15 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:17">
       <c r="A175" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B175">
-        <v>0.00104602510460251</v>
+        <v>0.00105708245243129</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -9817,397 +9763,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17">
-      <c r="A176" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B176">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176">
-        <v>1</v>
-      </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176" t="b">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-      <c r="D177">
-        <v>1</v>
-      </c>
-      <c r="E177">
-        <v>1</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177" t="b">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B178">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-      <c r="D178">
-        <v>1</v>
-      </c>
-      <c r="E178">
-        <v>1</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178" t="b">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B179">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179" t="b">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B180">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180" t="b">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B181">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="G181" t="b">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B182">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-      <c r="E182">
-        <v>1</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182" t="b">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B183">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183">
-        <v>1</v>
-      </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B184">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184" t="b">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B185">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185" t="b">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B186">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186" t="b">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B187">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187" t="b">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B188">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188" t="b">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B189">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189" t="b">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B190">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-      <c r="G190" t="b">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
